--- a/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
+++ b/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF64074-DA9A-47C4-93BC-61E716CC6C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB134FC4-AFF8-4A15-8FBE-EF2202D4C34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Десятичная</t>
   </si>
@@ -519,6 +519,165 @@
 D0 - тип мотора
 N0 -</t>
     </r>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x17</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>savePoint</t>
+  </si>
+  <si>
+    <t>getPosition</t>
+  </si>
+  <si>
+    <t>Сохранить текущую позицию как точку</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>C20A0D3N0x</t>
+  </si>
+  <si>
+    <t>resetPosition</t>
+  </si>
+  <si>
+    <t>Сброс текущей позиции</t>
+  </si>
+  <si>
+    <t>C22A0D0N0x</t>
+  </si>
+  <si>
+    <t>setPosition</t>
+  </si>
+  <si>
+    <t>Установить текущую позицию</t>
+  </si>
+  <si>
+    <t>0-32766</t>
+  </si>
+  <si>
+    <t>C23A0D1000N0x</t>
+  </si>
+  <si>
+    <t>gotoPoint</t>
+  </si>
+  <si>
+    <t>Перейти на точку</t>
+  </si>
+  <si>
+    <t>C24A0D5N0x</t>
+  </si>
+  <si>
+    <t>getPoints</t>
+  </si>
+  <si>
+    <t>Получить массив точек</t>
+  </si>
+  <si>
+    <t>Возвращает массив сохраненных точек</t>
+  </si>
+  <si>
+    <t>C25A1D0N0x</t>
+  </si>
+  <si>
+    <t>C22A0D0N0x C22 - команда A0 - выполнить D0 - N0 -</t>
+  </si>
+  <si>
+    <t>C23A0D1000N0x C23 - команда A0 - записать D1000 - позиция N0 -</t>
+  </si>
+  <si>
+    <t>C24A0D5N0x C24 - команда A0 - выполнить D5 - номер точки N0 -</t>
+  </si>
+  <si>
+    <t>C25A1D0N0x C25 - команда A1 - прочитать D0 - N0 -</t>
+  </si>
+  <si>
+    <t>C20A0D3N0x C20 - команда A0 - записать D3 - номер точки N0 -</t>
+  </si>
+  <si>
+    <t>Получить текущую позицию в шагах и текущую точку</t>
+  </si>
+  <si>
+    <t>C21A1D0N0x - получить позицию C21A2D0N0x - получить текущую точку C21A3D0N0x - получить статус калибровки</t>
+  </si>
+  <si>
+    <t>При A1: текущая позиция в шагах При A2: номер текущей точки (0-9) При A3: статус калибровки (0/1)</t>
+  </si>
+  <si>
+    <t>C21A1D0N0x C21A2D0N0x C21A3D0N0x</t>
+  </si>
+  <si>
+    <t>0x1B</t>
+  </si>
+  <si>
+    <t>gotoPosition</t>
+  </si>
+  <si>
+    <t>Перейти на позицию в шагах</t>
+  </si>
+  <si>
+    <t>C27A0D1000N0x C27 - команда A0 - выполнить D1000 - позиция N0 -</t>
+  </si>
+  <si>
+    <t>C27A0D1000N0x</t>
+  </si>
+  <si>
+    <t>0x1C</t>
+  </si>
+  <si>
+    <t>getMaxPosition</t>
+  </si>
+  <si>
+    <t>Получить максимальную позицию</t>
+  </si>
+  <si>
+    <t>C28A1D0N0x C28 - команда A1 - прочитать D0 - N0 -</t>
+  </si>
+  <si>
+    <t>Возвращает максимальную доступную позицию</t>
+  </si>
+  <si>
+    <t>C28A1D0N0x</t>
+  </si>
+  <si>
+    <t>0x1D</t>
+  </si>
+  <si>
+    <t>getMinPosition</t>
+  </si>
+  <si>
+    <t>Получить минимальную позицию</t>
+  </si>
+  <si>
+    <t>C29A1D0N0x C29 - команда A1 - прочитать D0 - N0 -</t>
+  </si>
+  <si>
+    <t>Возвращает минимальную доступную позицию</t>
+  </si>
+  <si>
+    <t>C29A1D0N0x</t>
   </si>
 </sst>
 </file>
@@ -674,13 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -708,8 +864,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,221 +1247,221 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="229.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -1311,14 +1476,14 @@
       <c r="D12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1327,265 +1492,406 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="11">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="14">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="14">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="14">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="14">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="14">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="14">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="14">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="5">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="5">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>

--- a/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
+++ b/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB134FC4-AFF8-4A15-8FBE-EF2202D4C34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332CE0E2-9F8A-4FAF-A439-2AD145EAEB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>Десятичная</t>
   </si>
@@ -560,131 +560,158 @@
     <t>C20A0D3N0x</t>
   </si>
   <si>
-    <t>resetPosition</t>
-  </si>
-  <si>
-    <t>Сброс текущей позиции</t>
+    <t>0-32766</t>
+  </si>
+  <si>
+    <t>gotoPoint</t>
+  </si>
+  <si>
+    <t>Перейти на точку</t>
+  </si>
+  <si>
+    <t>C24A0D5N0x</t>
+  </si>
+  <si>
+    <t>Возвращает массив сохраненных точек</t>
+  </si>
+  <si>
+    <t>C25A1D0N0x</t>
+  </si>
+  <si>
+    <t>C24A0D5N0x C24 - команда A0 - выполнить D5 - номер точки N0 -</t>
+  </si>
+  <si>
+    <t>C20A0D3N0x C20 - команда A0 - записать D3 - номер точки N0 -</t>
+  </si>
+  <si>
+    <t>Получить текущую позицию в шагах и текущую точку</t>
+  </si>
+  <si>
+    <t>При A1: текущая позиция в шагах При A2: номер текущей точки (0-9) При A3: статус калибровки (0/1)</t>
+  </si>
+  <si>
+    <t>C21A1D0N0x C21A2D0N0x C21A3D0N0x</t>
+  </si>
+  <si>
+    <t>0x1B</t>
+  </si>
+  <si>
+    <t>gotoPosition</t>
+  </si>
+  <si>
+    <t>Перейти на позицию в шагах</t>
+  </si>
+  <si>
+    <t>C27A0D1000N0x C27 - команда A0 - выполнить D1000 - позиция N0 -</t>
+  </si>
+  <si>
+    <t>C27A0D1000N0x</t>
+  </si>
+  <si>
+    <t>0x1C</t>
+  </si>
+  <si>
+    <t>getMaxPosition</t>
+  </si>
+  <si>
+    <t>Получить максимальную позицию</t>
+  </si>
+  <si>
+    <t>C28A1D0N0x C28 - команда A1 - прочитать D0 - N0 -</t>
+  </si>
+  <si>
+    <t>Возвращает максимальную доступную позицию</t>
+  </si>
+  <si>
+    <t>C28A1D0N0x</t>
+  </si>
+  <si>
+    <t>0x1D</t>
+  </si>
+  <si>
+    <t>getMinPosition</t>
+  </si>
+  <si>
+    <t>Получить минимальную позицию</t>
+  </si>
+  <si>
+    <t>C29A1D0N0x C29 - команда A1 - прочитать D0 - N0 -</t>
+  </si>
+  <si>
+    <t>Возвращает минимальную доступную позицию</t>
+  </si>
+  <si>
+    <t>C29A1D0N0x</t>
+  </si>
+  <si>
+    <t>C25A1D0N0x C25 - команда A1 - прочитать D0 -  N0 -</t>
+  </si>
+  <si>
+    <t>getPoint</t>
+  </si>
+  <si>
+    <t>Получить точеку в шагах</t>
+  </si>
+  <si>
+    <t>goto_SW0</t>
+  </si>
+  <si>
+    <t>goto_SW1</t>
   </si>
   <si>
     <t>C22A0D0N0x</t>
   </si>
   <si>
-    <t>setPosition</t>
-  </si>
-  <si>
-    <t>Установить текущую позицию</t>
-  </si>
-  <si>
-    <t>0-32766</t>
-  </si>
-  <si>
-    <t>C23A0D1000N0x</t>
-  </si>
-  <si>
-    <t>gotoPoint</t>
-  </si>
-  <si>
-    <t>Перейти на точку</t>
-  </si>
-  <si>
-    <t>C24A0D5N0x</t>
-  </si>
-  <si>
-    <t>getPoints</t>
-  </si>
-  <si>
-    <t>Получить массив точек</t>
-  </si>
-  <si>
-    <t>Возвращает массив сохраненных точек</t>
-  </si>
-  <si>
-    <t>C25A1D0N0x</t>
-  </si>
-  <si>
-    <t>C22A0D0N0x C22 - команда A0 - выполнить D0 - N0 -</t>
-  </si>
-  <si>
-    <t>C23A0D1000N0x C23 - команда A0 - записать D1000 - позиция N0 -</t>
-  </si>
-  <si>
-    <t>C24A0D5N0x C24 - команда A0 - выполнить D5 - номер точки N0 -</t>
-  </si>
-  <si>
-    <t>C25A1D0N0x C25 - команда A1 - прочитать D0 - N0 -</t>
-  </si>
-  <si>
-    <t>C20A0D3N0x C20 - команда A0 - записать D3 - номер точки N0 -</t>
-  </si>
-  <si>
-    <t>Получить текущую позицию в шагах и текущую точку</t>
-  </si>
-  <si>
-    <t>C21A1D0N0x - получить позицию C21A2D0N0x - получить текущую точку C21A3D0N0x - получить статус калибровки</t>
-  </si>
-  <si>
-    <t>При A1: текущая позиция в шагах При A2: номер текущей точки (0-9) При A3: статус калибровки (0/1)</t>
-  </si>
-  <si>
-    <t>C21A1D0N0x C21A2D0N0x C21A3D0N0x</t>
-  </si>
-  <si>
-    <t>0x1B</t>
-  </si>
-  <si>
-    <t>gotoPosition</t>
-  </si>
-  <si>
-    <t>Перейти на позицию в шагах</t>
-  </si>
-  <si>
-    <t>C27A0D1000N0x C27 - команда A0 - выполнить D1000 - позиция N0 -</t>
-  </si>
-  <si>
-    <t>C27A0D1000N0x</t>
-  </si>
-  <si>
-    <t>0x1C</t>
-  </si>
-  <si>
-    <t>getMaxPosition</t>
-  </si>
-  <si>
-    <t>Получить максимальную позицию</t>
-  </si>
-  <si>
-    <t>C28A1D0N0x C28 - команда A1 - прочитать D0 - N0 -</t>
-  </si>
-  <si>
-    <t>Возвращает максимальную доступную позицию</t>
-  </si>
-  <si>
-    <t>C28A1D0N0x</t>
-  </si>
-  <si>
-    <t>0x1D</t>
-  </si>
-  <si>
-    <t>getMinPosition</t>
-  </si>
-  <si>
-    <t>Получить минимальную позицию</t>
-  </si>
-  <si>
-    <t>C29A1D0N0x C29 - команда A1 - прочитать D0 - N0 -</t>
-  </si>
-  <si>
-    <t>Возвращает минимальную доступную позицию</t>
-  </si>
-  <si>
-    <t>C29A1D0N0x</t>
+    <t>C23A0D0N0x</t>
+  </si>
+  <si>
+    <t>setPoint</t>
+  </si>
+  <si>
+    <t>Установить позицию в точку</t>
+  </si>
+  <si>
+    <t>C30A0D1500N0x</t>
+  </si>
+  <si>
+    <t>0x1E</t>
+  </si>
+  <si>
+    <t>C30A1D0N0x C30 - команда A0 - аписать D0 - позиция в щагах N0 - номер точки для записи</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C21A1D0N0x - получить позицию </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>C21A2D0N0x - получить текущую точку</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> C21A3D0N0x - получить статус калибровки</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,8 +766,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +791,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -833,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,17 +911,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1222,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,16 +1520,16 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="5"/>
@@ -1488,10 +1544,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>89</v>
@@ -1683,226 +1739,229 @@
       <c r="A24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>20</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="s">
+      <c r="F24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>21</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="D25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="C26" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>23</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
-        <v>109</v>
+      <c r="C27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>24</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
-        <v>112</v>
+      <c r="F28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>116</v>
+      <c r="C29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="14">
+        <v>114</v>
+      </c>
+      <c r="B30" s="12">
         <v>27</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="s">
-        <v>130</v>
+      <c r="C30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>131</v>
+      <c r="A31" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="B31" s="5">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>137</v>
+      <c r="A32" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="B32" s="5">
         <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="5">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1911,7 +1970,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1920,7 +1979,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1929,7 +1988,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1938,7 +1997,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1947,7 +2006,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1956,7 +2015,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1965,7 +2024,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1974,7 +2033,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1983,7 +2042,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1992,7 +2051,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2001,7 +2060,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2010,7 +2069,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2019,7 +2078,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2028,7 +2087,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
+++ b/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332CE0E2-9F8A-4FAF-A439-2AD145EAEB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA32C4E-D06D-4D11-A9CA-853AE11B163F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>SlowdownDistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Количество шагов для торможения установить или прочитать </t>
-  </si>
-  <si>
     <t xml:space="preserve">C7A0D0N0x
 C7 - комманда
 A0 -  0 записать 1 прочитать
@@ -396,9 +393,6 @@
   </si>
   <si>
     <t xml:space="preserve">Новые функции </t>
-  </si>
-  <si>
-    <t>Добавлен параметр начальной скорости. С этой скорости начинается разгон</t>
   </si>
   <si>
     <t>C6A2D10N0x
@@ -477,21 +471,6 @@
     </r>
   </si>
   <si>
-    <t>A0 - установка режима вращения
-A1 - чтенение реджима вращения
-D0 - бесконечно с энкодером(не реализовано)
-D1 - бесконечн
-D2 - Количество шагов по счетчику
-D3 - Количество шагов по энкодеру
-D4 - Количество шагов по счетчику остановка по концевику</t>
-  </si>
-  <si>
-    <t>A2 - установка типа мотора
-A3 - чтенение типа мотора
-D0 - шаговый мотор
-D1 - BLDC</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -705,6 +684,30 @@
       </rPr>
       <t xml:space="preserve"> C21A3D0N0x - получить статус калибровки</t>
     </r>
+  </si>
+  <si>
+    <t>Не используется</t>
+  </si>
+  <si>
+    <t>A2 - установка типа мотора
+A3 - чтенение типа мотора
+D0 - шаговый мотор
+D1 - BLDC
+(Не используется)</t>
+  </si>
+  <si>
+    <t>Добавлен параметр начальной скорости. С этой скорости начинается разгон
+Установить скорость можно только но остановленном моторе</t>
+  </si>
+  <si>
+    <t>A0 - установка режима вращения
+A1 - чтенение реджима вращения
+D0 - бесконечно с энкодером(не реализовано)
+D1 - бесконечн
+D2 - Количество шагов по счетчику
+D3 - Количество шагов по энкодеру
+D4 - Количество шагов по счетчику остановка по концевику
+требуется коректировка</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,17 +929,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1278,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,13 +1348,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1350,18 +1368,18 @@
         <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
@@ -1379,13 +1397,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1402,14 +1420,14 @@
         <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
@@ -1429,11 +1447,11 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="229.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1447,11 +1465,11 @@
         <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -1466,7 +1484,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -1474,30 +1492,30 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>72</v>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1508,52 +1526,52 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>69</v>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1565,14 +1583,14 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -1587,11 +1605,11 @@
         <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -1606,11 +1624,11 @@
         <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -1629,7 +1647,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1648,7 +1666,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1667,7 +1685,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1686,7 +1704,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1705,13 +1723,13 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5">
         <v>18</v>
@@ -1724,7 +1742,7 @@
     </row>
     <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B23" s="11">
         <v>19</v>
@@ -1737,228 +1755,228 @@
     </row>
     <row r="24" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="12">
         <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>93</v>
+      <c r="A25" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B25" s="12">
         <v>21</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="12">
         <v>22</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B27" s="12">
         <v>23</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B28" s="12">
         <v>24</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B29" s="12">
         <v>25</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>119</v>
+      <c r="A31" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="B31" s="5">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>125</v>
+      <c r="A32" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="B32" s="5">
         <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>141</v>
+      <c r="A33" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="B33" s="5">
         <v>30</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">

--- a/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
+++ b/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA32C4E-D06D-4D11-A9CA-853AE11B163F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2725821C-2A17-4B92-8B04-06838A1DCED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t>Десятичная</t>
   </si>
@@ -708,6 +714,9 @@
 D3 - Количество шагов по энкодеру
 D4 - Количество шагов по счетчику остановка по концевику
 требуется коректировка</t>
+  </si>
+  <si>
+    <t>C2A0D0N0x</t>
   </si>
 </sst>
 </file>
@@ -889,20 +898,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,17 +919,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,31 +934,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,9 +976,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1014,9 +1016,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1049,26 +1051,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1101,26 +1086,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1297,247 +1265,248 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="1">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1">
         <f>+K:K</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="178.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="229.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" ht="229.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:10" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
@@ -1550,578 +1519,578 @@
       <c r="D12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="193.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="203.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>19</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="5">
         <v>21</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="5">
         <v>27</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2145,7 +2114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2158,7 +2127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
+++ b/Universal_Driver_soft/UD_v4/Map Registers UD4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2725821C-2A17-4B92-8B04-06838A1DCED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FCA07-1F09-43EB-96C8-0CB90D76E11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>Десятичная</t>
   </si>
@@ -241,13 +236,6 @@
 A1 -  0 записать 1 прочитать
 D32766 - Количество шагов
 N0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возврошает разные статусы
-A0 - Target Докрутились до цели или нет возврошаемые значения 0 - двиготель крутится. 1 докрутились до цели. 2- ошибка вращения. 3 - двигатель начал движение не в сторону цели
-A1 - положение по концевикам 0 - на концевике №1. 1 - между концевиками. 2 -  на концевике №2
-A2 - Сколько шагов сделал мотор за последную операцию
-</t>
   </si>
   <si>
     <t xml:space="preserve">C5A0D1000N0x
@@ -599,9 +587,6 @@
     <t>getMaxPosition</t>
   </si>
   <si>
-    <t>Получить максимальную позицию</t>
-  </si>
-  <si>
     <t>C28A1D0N0x C28 - команда A1 - прочитать D0 - N0 -</t>
   </si>
   <si>
@@ -716,7 +701,18 @@
 требуется коректировка</t>
   </si>
   <si>
-    <t>C2A0D0N0x</t>
+    <t>Всегда идет к концевику не взирая на режим</t>
+  </si>
+  <si>
+    <t>Получить максимальную позицию
+Позиция в шагах до первого концевика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возврошает разные статусы
+A0 - Target Докрутились до цели или нет возврошаемые значения 0 - двигатель крутится. 1 докрутились до цели. 2- ошибка вращения. 3 - двигатель начал движение не в сторону цели
+A1 - положение по концевикам 0 - на концевике №1. 1 - между концевиками. 2 -  на концевике №2
+A2 - Сколько шагов сделал мотор за последную операцию
+</t>
   </si>
 </sst>
 </file>
@@ -898,19 +894,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,14 +916,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,28 +934,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,9 +979,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1016,9 +1019,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,9 +1054,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1086,9 +1106,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1264,833 +1301,836 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1">
+      <c r="J1" s="1">
         <f>+K:K</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="178.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="229.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="20">
+        <v>9</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="178.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="15" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="193.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="203.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="11">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="12">
+        <v>20</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="12">
+        <v>21</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="12">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="229.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="15">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="12">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="12">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="12">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="12">
+        <v>27</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="5">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="5">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="5">
         <v>30</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="193.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="203.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="162" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="10">
-        <v>19</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="5">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="5">
-        <v>21</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="5">
-        <v>22</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
+      <c r="C33" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="5">
-        <v>23</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="5">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="5">
-        <v>25</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="5">
-        <v>27</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="4">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="4">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="54" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="4">
-        <v>30</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="11" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
